--- a/others/7-22-knights-tour-accessibility-number.xlsx
+++ b/others/7-22-knights-tour-accessibility-number.xlsx
@@ -1223,7 +1223,7 @@
   <dimension ref="B6:K24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O21" sqref="O21"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8" defaultRowHeight="15.75"/>
@@ -1427,7 +1427,7 @@
       <c r="I12" s="6" t="s">
         <v>56</v>
       </c>
-      <c r="J12" s="6" t="s">
+      <c r="J12" s="5" t="s">
         <v>57</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -1638,7 +1638,7 @@
       <c r="I23" s="6">
         <v>11</v>
       </c>
-      <c r="J23" s="6">
+      <c r="J23" s="5">
         <v>12</v>
       </c>
       <c r="K23" s="4">
